--- a/Plan/迭代计划.xlsx
+++ b/Plan/迭代计划.xlsx
@@ -14,154 +14,178 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>宣传网站</t>
   </si>
   <si>
-    <t>介绍产品（技术、功能、特点），介绍团队</t>
-  </si>
-  <si>
-    <t>宣传PPT</t>
-  </si>
-  <si>
-    <t>1、为什么要做这个产品
-2、我们要做的产品有哪些内容
-3、产品的主要宣传点
-4、我们都做了哪些准备（技术准备、调研了哪些先有产品）
-5、我们的产品可以弥补先有产品打哪些不足
-6、先关作品展示
-7、产品未来展望</t>
-  </si>
-  <si>
     <t>功能文档</t>
   </si>
   <si>
-    <t>设计程序应该包含的功能，详细介绍
-每个功能包含的内容（操作点、页面），实现方式，涉及的
-技术点，如何实现。</t>
+    <t>人脸识别程序</t>
+  </si>
+  <si>
+    <t>可以设置生成头像图片的大小</t>
+  </si>
+  <si>
+    <t>可以设置生成头像打形状</t>
+  </si>
+  <si>
+    <t>可以设置生成头像打存储位置</t>
+  </si>
+  <si>
+    <t>将程序做成系统服务或客户端，
+对外提供接口，
+网站可以调用到此程序生成照片</t>
+  </si>
+  <si>
+    <t>照片存储路径可配置</t>
+  </si>
+  <si>
+    <t>图片合成程序</t>
+  </si>
+  <si>
+    <t>实现多个小图片合成一张大图</t>
+  </si>
+  <si>
+    <t>自定义需要合成照片数量</t>
+  </si>
+  <si>
+    <t>指定一张封面照片，按照封面照片的大小计算合成算法</t>
+  </si>
+  <si>
+    <t>设置封面照片打透明度</t>
+  </si>
+  <si>
+    <t>封面照片和合成照片的合并</t>
+  </si>
+  <si>
+    <t>网站</t>
+  </si>
+  <si>
+    <t>页面制作</t>
+  </si>
+  <si>
+    <t>照片上传</t>
+  </si>
+  <si>
+    <t>照片库建立，分类：人像、动物像</t>
+  </si>
+  <si>
+    <t>照片库图片录入</t>
+  </si>
+  <si>
+    <t>照片库图片读取、分类查询</t>
+  </si>
+  <si>
+    <t>调用图片合成程序接口，合成图片</t>
+  </si>
+  <si>
+    <t>调用人脸识别程序接口，返回图片</t>
+  </si>
+  <si>
+    <t>用户可选择普通组合、蒙太奇（设置封面照片）</t>
+  </si>
+  <si>
+    <t>（普通组合）用户可自己上传图片，设置生成照片的大小，网站计算每张照片的大小，根据上传的图片组合为大图</t>
+  </si>
+  <si>
+    <t>（蒙太奇）用户上传封面照片，系统自动从图片库获得头像生成合成后的照片</t>
+  </si>
+  <si>
+    <t>（蒙太奇）用户可自己上传头像，头像数量不足时从图片库取或者重复使用上传打头像，用户自己选择</t>
+  </si>
+  <si>
+    <t>用户数据存储，只需要密码即可。</t>
+  </si>
+  <si>
+    <t>里程碑二（2014年12月26日）
+人脸识别程序
+图片合成程序
+网站基本功能</t>
+  </si>
+  <si>
+    <t>分布式架构设计</t>
+  </si>
+  <si>
+    <t>用户可选择是否需要人脸识别功能，上传的每张照片都可设置</t>
+  </si>
+  <si>
+    <t>优化</t>
+  </si>
+  <si>
+    <t>程序抓取网络图片，存入图片库</t>
+  </si>
+  <si>
+    <t>用户上传打图像唯一性校验，避免重复上传。重复上传时从服务器获取。</t>
+  </si>
+  <si>
+    <t>宣讲PPT</t>
+  </si>
+  <si>
+    <t>功能介绍</t>
+  </si>
+  <si>
+    <t>里程碑三（2015年1月30日）
+程序优化
+数据导入
+宣讲PPT</t>
+  </si>
+  <si>
+    <t>Artistic Mosaic 迭代计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>里程碑一（2014年11月28日）
 宣传网站
 宣传PPT
 功能文档</t>
-  </si>
-  <si>
-    <t>人脸识别程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT演讲准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT内容准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于PPT内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人脸识别</t>
-  </si>
-  <si>
-    <t>可以设置生成头像图片的大小</t>
-  </si>
-  <si>
-    <t>可以设置生成头像打形状</t>
-  </si>
-  <si>
-    <t>可以设置生成头像打存储位置</t>
-  </si>
-  <si>
-    <t>将程序做成系统服务或客户端，
-对外提供接口，
-网站可以调用到此程序生成照片</t>
-  </si>
-  <si>
-    <t>照片存储路径可配置</t>
-  </si>
-  <si>
-    <t>图片合成程序</t>
-  </si>
-  <si>
-    <t>实现多个小图片合成一张大图</t>
-  </si>
-  <si>
-    <t>自定义需要合成照片数量</t>
-  </si>
-  <si>
-    <t>指定一张封面照片，按照封面照片的大小计算合成算法</t>
-  </si>
-  <si>
-    <t>设置封面照片打透明度</t>
-  </si>
-  <si>
-    <t>封面照片和合成照片的合并</t>
-  </si>
-  <si>
-    <t>网站</t>
-  </si>
-  <si>
-    <t>页面制作</t>
-  </si>
-  <si>
-    <t>照片上传</t>
-  </si>
-  <si>
-    <t>照片库建立，分类：人像、动物像</t>
-  </si>
-  <si>
-    <t>照片库图片录入</t>
-  </si>
-  <si>
-    <t>照片库图片读取、分类查询</t>
-  </si>
-  <si>
-    <t>调用图片合成程序接口，合成图片</t>
-  </si>
-  <si>
-    <t>调用人脸识别程序接口，返回图片</t>
-  </si>
-  <si>
-    <t>用户可选择普通组合、蒙太奇（设置封面照片）</t>
-  </si>
-  <si>
-    <t>（普通组合）用户可自己上传图片，设置生成照片的大小，网站计算每张照片的大小，根据上传的图片组合为大图</t>
-  </si>
-  <si>
-    <t>（蒙太奇）用户上传封面照片，系统自动从图片库获得头像生成合成后的照片</t>
-  </si>
-  <si>
-    <t>（蒙太奇）用户可自己上传头像，头像数量不足时从图片库取或者重复使用上传打头像，用户自己选择</t>
-  </si>
-  <si>
-    <t>用户数据存储，只需要密码即可。</t>
-  </si>
-  <si>
-    <t>里程碑二（2014年12月26日）
-人脸识别程序
-图片合成程序
-网站基本功能</t>
-  </si>
-  <si>
-    <t>分布式架构设计</t>
-  </si>
-  <si>
-    <t>用户可选择是否需要人脸识别功能，上传的每张照片都可设置</t>
-  </si>
-  <si>
-    <t>优化</t>
-  </si>
-  <si>
-    <t>程序抓取网络图片，存入图片库</t>
-  </si>
-  <si>
-    <t>用户上传打图像唯一性校验，避免重复上传。重复上传时从服务器获取。</t>
-  </si>
-  <si>
-    <t>宣讲PPT</t>
-  </si>
-  <si>
-    <t>功能介绍</t>
-  </si>
-  <si>
-    <t>里程碑三（2015年1月30日）
-程序优化
-数据导入
-宣讲PPT</t>
-  </si>
-  <si>
-    <t>Artistic Mosaic 迭代计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT模板图片准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李璐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT模板准备（已完成）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡萌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计程序应该包含的功能，详细介绍
+每个功能包含的内容（操作点、页面），实现方式，涉及的
+技术点，如何实现。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -220,11 +244,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -232,11 +253,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,10 +581,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -556,251 +595,280 @@
     <col min="4" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="27">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="27">
       <c r="A1" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.5" customHeight="1">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="B3" s="10"/>
+      <c r="C3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="4" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="B4" s="10"/>
+      <c r="C4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="B5" s="10"/>
+      <c r="C5" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="7" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B6" s="10"/>
+      <c r="C6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="35.25" customHeight="1">
+      <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="84">
-      <c r="B3" s="2" t="s">
+      <c r="C7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" ht="55.15" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="4"/>
+      <c r="C10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="36">
-      <c r="B4" s="2" t="s">
+    <row r="11" spans="1:4">
+      <c r="B11" s="4"/>
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="4"/>
+      <c r="C12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" ht="55.15" customHeight="1">
-      <c r="A5" s="4" t="s">
+    <row r="13" spans="1:4" ht="36">
+      <c r="B13" s="4"/>
+      <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="1" t="s">
+    <row r="14" spans="1:4">
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="1"/>
-      <c r="C7" t="s">
+      <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="1"/>
-      <c r="C8" t="s">
+    <row r="16" spans="1:4">
+      <c r="B16" s="4"/>
+      <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="1"/>
-      <c r="C9" t="s">
+    <row r="17" spans="1:3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="36">
-      <c r="B10" s="1"/>
-      <c r="C10" s="3" t="s">
+    <row r="18" spans="1:3">
+      <c r="B18" s="4"/>
+      <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="1"/>
-      <c r="C11" t="s">
+    <row r="19" spans="1:3">
+      <c r="B19" s="4"/>
+      <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="1" t="s">
+    <row r="20" spans="1:3">
+      <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
+    <row r="21" spans="1:3">
+      <c r="B21" s="4"/>
+      <c r="C21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
+    <row r="22" spans="1:3">
+      <c r="B22" s="4"/>
+      <c r="C22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="2" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" s="4"/>
+      <c r="C23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="2" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" s="4"/>
+      <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="B17" s="1" t="s">
+    <row r="25" spans="1:3">
+      <c r="B25" s="4"/>
+      <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="4"/>
+      <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="B18" s="1"/>
-      <c r="C18" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" s="4"/>
+      <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="B19" s="1"/>
-      <c r="C19" t="s">
+    <row r="28" spans="1:3">
+      <c r="B28" s="4"/>
+      <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="B20" s="1"/>
-      <c r="C20" t="s">
+    <row r="29" spans="1:3">
+      <c r="B29" s="4"/>
+      <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="2" t="s">
+    <row r="30" spans="1:3">
+      <c r="B30" s="4"/>
+      <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="2" t="s">
+    <row r="31" spans="1:3">
+      <c r="B31" s="4"/>
+      <c r="C31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="2" t="s">
+    <row r="32" spans="1:3" s="3" customFormat="1" ht="55.15" customHeight="1">
+      <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="2" t="s">
+    <row r="33" spans="1:3">
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="2" t="s">
+    <row r="34" spans="1:3">
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" s="1"/>
-      <c r="C26" s="2" t="s">
+    <row r="36" spans="1:3">
+      <c r="B36" s="4"/>
+      <c r="C36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" s="1"/>
-      <c r="C27" s="2" t="s">
+    <row r="37" spans="1:3">
+      <c r="B37" s="4"/>
+      <c r="C37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="B28" s="1"/>
-      <c r="C28" t="s">
+    <row r="38" spans="1:3">
+      <c r="B38" s="4"/>
+      <c r="C38" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" ht="55.15" customHeight="1">
-      <c r="A29" s="4" t="s">
+    <row r="39" spans="1:3">
+      <c r="B39" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="C39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="B31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="B32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="2" t="s">
+    <row r="40" spans="1:3" s="3" customFormat="1" ht="55.15" customHeight="1">
+      <c r="A40" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="B33" s="1"/>
-      <c r="C33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="B34" s="1"/>
-      <c r="C34" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="B35" s="1"/>
-      <c r="C35" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="4" customFormat="1" ht="55.15" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B17:B28"/>
-    <mergeCell ref="B32:B35"/>
+  <mergeCells count="6">
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B31"/>
+    <mergeCell ref="B35:B38"/>
     <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="B3:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/Plan/迭代计划.xlsx
+++ b/Plan/迭代计划.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>宣传网站</t>
   </si>
   <si>
-    <t>功能文档</t>
-  </si>
-  <si>
     <t>人脸识别程序</t>
   </si>
   <si>
@@ -34,11 +31,6 @@
     <t>可以设置生成头像打存储位置</t>
   </si>
   <si>
-    <t>将程序做成系统服务或客户端，
-对外提供接口，
-网站可以调用到此程序生成照片</t>
-  </si>
-  <si>
     <t>照片存储路径可配置</t>
   </si>
   <si>
@@ -48,15 +40,9 @@
     <t>实现多个小图片合成一张大图</t>
   </si>
   <si>
-    <t>自定义需要合成照片数量</t>
-  </si>
-  <si>
     <t>指定一张封面照片，按照封面照片的大小计算合成算法</t>
   </si>
   <si>
-    <t>设置封面照片打透明度</t>
-  </si>
-  <si>
     <t>封面照片和合成照片的合并</t>
   </si>
   <si>
@@ -82,9 +68,6 @@
   </si>
   <si>
     <t>调用人脸识别程序接口，返回图片</t>
-  </si>
-  <si>
-    <t>用户可选择普通组合、蒙太奇（设置封面照片）</t>
   </si>
   <si>
     <t>（普通组合）用户可自己上传图片，设置生成照片的大小，网站计算每张照片的大小，根据上传的图片组合为大图</t>
@@ -183,9 +166,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设计程序应该包含的功能，详细介绍
-每个功能包含的内容（操作点、页面），实现方式，涉及的
-技术点，如何实现。</t>
+    <t>自定义需要合成照片数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将程序做成系统服务或客户端，
+对外提供接口，
+网站可以调用到此程序生成照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户可选择普通组合、蒙太奇（设置封面照片）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片爬抓、存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置封面照片打透明度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片合成程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李璐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡萌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014/11/28至2014年12月2日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备内容：展示效果、简单介绍、应用面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片组合（多张小图组合为一张大图）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制定迭代计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构思应用场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,7 +252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -208,6 +267,12 @@
     </font>
     <font>
       <sz val="22"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
@@ -244,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -253,6 +318,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -262,20 +342,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,10 +658,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -595,280 +672,334 @@
     <col min="4" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="27">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" s="11" customFormat="1" ht="27">
+      <c r="A1" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.5" customHeight="1">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B3" s="12"/>
+      <c r="C3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B4" s="12"/>
+      <c r="C4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B5" s="12"/>
+      <c r="C5" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B6" s="12"/>
+      <c r="C6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="3" customFormat="1" ht="55.15" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1">
-      <c r="B2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="14" spans="1:4">
+      <c r="B14" s="9"/>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="9"/>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="9"/>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="36">
+      <c r="B17" s="9"/>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="9"/>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="9"/>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="9"/>
+      <c r="C22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="9"/>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="9"/>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="9"/>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="9"/>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="9"/>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="9"/>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="9"/>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="9"/>
+      <c r="C31" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="B3" s="10"/>
-      <c r="C3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="10"/>
-      <c r="C4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="B5" s="10"/>
-      <c r="C5" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="7" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B6" s="10"/>
-      <c r="C6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="35.25" customHeight="1">
-      <c r="B7" s="9" t="s">
+    <row r="32" spans="2:3">
+      <c r="B32" s="9"/>
+      <c r="C32" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" s="9"/>
+      <c r="C33" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" s="9"/>
+      <c r="C34" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" s="9"/>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="3" customFormat="1" ht="55.15" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" ht="55.15" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="4"/>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="4"/>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="36">
-      <c r="B13" s="4"/>
-      <c r="C13" s="2" t="s">
+      <c r="C37" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="4"/>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="4"/>
-      <c r="C16" s="1" t="s">
+      <c r="C38" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="4"/>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="B22" s="4"/>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="4"/>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="4"/>
-      <c r="C24" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="4"/>
-      <c r="C25" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" s="4"/>
-      <c r="C26" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="B27" s="4"/>
-      <c r="C27" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="B28" s="4"/>
-      <c r="C28" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" s="4"/>
-      <c r="C29" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="B30" s="4"/>
-      <c r="C30" s="1" t="s">
+    <row r="40" spans="1:3">
+      <c r="B40" s="9"/>
+      <c r="C40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="B31" s="4"/>
-      <c r="C31" t="s">
+    <row r="41" spans="1:3">
+      <c r="B41" s="9"/>
+      <c r="C41" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="3" customFormat="1" ht="55.15" customHeight="1">
-      <c r="A32" s="3" t="s">
+    <row r="42" spans="1:3">
+      <c r="B42" s="9"/>
+      <c r="C42" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="1" t="s">
+    <row r="43" spans="1:3">
+      <c r="B43" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="B34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="B35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="C43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="B36" s="4"/>
-      <c r="C36" t="s">
+    <row r="44" spans="1:3" s="3" customFormat="1" ht="55.15" customHeight="1">
+      <c r="A44" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="B37" s="4"/>
-      <c r="C37" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="B38" s="4"/>
-      <c r="C38" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="B39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="3" customFormat="1" ht="55.15" customHeight="1">
-      <c r="A40" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B31"/>
-    <mergeCell ref="B35:B38"/>
+  <mergeCells count="8">
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B35"/>
+    <mergeCell ref="B39:B42"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A7:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/Plan/迭代计划.xlsx
+++ b/Plan/迭代计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>宣传网站</t>
   </si>
@@ -180,15 +180,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>图片爬抓、存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置封面照片打透明度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片合成程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡萌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014/11/28至2014年12月2日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制定迭代计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PPT修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>图片爬抓、存储</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写计划</t>
+    <t>PPT优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李璐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片组合（多张小图组合为一张大图）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构思应用场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备内容：展示效果、简单介绍、应用面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术调研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用html重叠图片示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王鹏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -196,23 +268,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设置封面照片打透明度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片合成程序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王鹏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资料准备</t>
+    <t>胡萌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -220,31 +276,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胡萌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014/11/28至2014年12月2日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术准备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准备内容：展示效果、简单介绍、应用面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片组合（多张小图组合为一张大图）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>制定迭代计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>构思应用场景</t>
+    <t>图片组合算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演讲准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年12月3日至2014年12月4日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年12月3日至2014年12月8日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备演讲内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -277,7 +329,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,6 +348,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -309,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -327,12 +385,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -342,16 +394,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -658,10 +726,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -672,334 +740,388 @@
     <col min="4" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" ht="27">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" s="9" customFormat="1" ht="27">
+      <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:4" s="11" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="B3" s="12"/>
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="1:4" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="12"/>
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="1:4" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="B5" s="12"/>
-      <c r="C5" s="5" t="s">
+    <row r="5" spans="1:4" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B6" s="12"/>
-      <c r="C6" s="5" t="s">
+    <row r="6" spans="1:4" s="13" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:4" s="13" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="D7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:4" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D9" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="18"/>
+      <c r="B10" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A11" s="18"/>
+      <c r="B11" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="3" customFormat="1" ht="55.15" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="7"/>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="7"/>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="7"/>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="36">
+      <c r="B21" s="7"/>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="7"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="7"/>
+      <c r="C24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="7"/>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="7"/>
+      <c r="C26" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="3" customFormat="1" ht="55.15" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="9" t="s">
+    <row r="27" spans="2:3">
+      <c r="B27" s="7"/>
+      <c r="C27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="7"/>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="7"/>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="7"/>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="7"/>
+      <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" s="7"/>
+      <c r="C33" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" s="7"/>
+      <c r="C34" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" s="7"/>
+      <c r="C35" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" s="7"/>
+      <c r="C36" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" s="7"/>
+      <c r="C37" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" s="7"/>
+      <c r="C38" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" s="7"/>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="3" customFormat="1" ht="55.15" customHeight="1">
+      <c r="A40" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" t="s">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="9"/>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="9"/>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="9"/>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="36">
-      <c r="B17" s="9"/>
-      <c r="C17" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="9"/>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="9"/>
-      <c r="C22" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="9"/>
-      <c r="C23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="9"/>
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="9"/>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="9"/>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="9"/>
-      <c r="C28" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="9"/>
-      <c r="C29" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="9"/>
-      <c r="C30" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="9"/>
-      <c r="C31" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="9"/>
-      <c r="C32" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="B33" s="9"/>
-      <c r="C33" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="B34" s="9"/>
-      <c r="C34" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="B35" s="9"/>
-      <c r="C35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="3" customFormat="1" ht="55.15" customHeight="1">
-      <c r="A36" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="B38" s="1" t="s">
+    <row r="42" spans="1:3">
+      <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="B39" s="9" t="s">
+    <row r="43" spans="1:3">
+      <c r="B43" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="B40" s="9"/>
-      <c r="C40" t="s">
+    <row r="44" spans="1:3">
+      <c r="B44" s="7"/>
+      <c r="C44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="B41" s="9"/>
-      <c r="C41" s="1" t="s">
+    <row r="45" spans="1:3">
+      <c r="B45" s="7"/>
+      <c r="C45" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="B42" s="9"/>
-      <c r="C42" s="1" t="s">
+    <row r="46" spans="1:3">
+      <c r="B46" s="7"/>
+      <c r="C46" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="B43" t="s">
+    <row r="47" spans="1:3">
+      <c r="B47" t="s">
         <v>28</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C47" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="3" customFormat="1" ht="55.15" customHeight="1">
-      <c r="A44" s="3" t="s">
+    <row r="48" spans="1:3" s="3" customFormat="1" ht="55.15" customHeight="1">
+      <c r="A48" s="3" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B35"/>
-    <mergeCell ref="B39:B42"/>
+  <mergeCells count="10">
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B39"/>
+    <mergeCell ref="B43:B46"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/Plan/迭代计划.xlsx
+++ b/Plan/迭代计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
   <si>
     <t>宣传网站</t>
   </si>
@@ -138,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人脸识别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张阳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,6 +293,42 @@
   </si>
   <si>
     <t>准备演讲内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongoDB深入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李璐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王鹏、张阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人脸识别程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术调研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>javascript截图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年12月8日至2014年12月15日(11小时)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C sharp算法深入研究</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -304,7 +336,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -327,6 +359,13 @@
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -367,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -376,27 +415,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -405,22 +423,49 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,179 +771,179 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="27.28515625"/>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125"/>
     <col min="3" max="3" width="58.42578125"/>
     <col min="4" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="27">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="27">
+      <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="11" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="B3" s="13"/>
+      <c r="C3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="B4" s="13"/>
+      <c r="C4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="B5" s="13"/>
+      <c r="C5" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="B3" s="14"/>
-      <c r="C3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="14"/>
-      <c r="C4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
+    <row r="6" spans="1:4" s="6" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B6" s="13"/>
+      <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="13" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B6" s="14"/>
-      <c r="C6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="13" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:4" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="6" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="C8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="15" t="s">
+    </row>
+    <row r="9" spans="1:4" s="6" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="6" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="C11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="17" t="s">
+      <c r="D11" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A12" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A13" s="15"/>
+      <c r="B13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A12" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A14" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="D15" s="6" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" ht="55.15" customHeight="1">
@@ -906,222 +951,254 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="16"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="16"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="20"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" s="20"/>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" s="20"/>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="36">
+      <c r="B24" s="20"/>
+      <c r="C24" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" s="20"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" s="10"/>
+      <c r="C27" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" s="10"/>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="10"/>
+      <c r="C29" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="10"/>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="10"/>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" s="10"/>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" s="10"/>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" s="10"/>
+      <c r="C35" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" s="10"/>
+      <c r="C36" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" s="10"/>
+      <c r="C37" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" s="10"/>
+      <c r="C38" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" s="10"/>
+      <c r="C39" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" s="10"/>
+      <c r="C40" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" s="10"/>
+      <c r="C41" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" s="10"/>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="3" customFormat="1" ht="55.15" customHeight="1">
+      <c r="A43" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" t="s">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="7"/>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="7"/>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="7"/>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="36">
-      <c r="B21" s="7"/>
-      <c r="C21" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="7"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="7"/>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="7"/>
-      <c r="C26" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="7"/>
-      <c r="C27" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="7"/>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="7"/>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="7"/>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="7"/>
-      <c r="C32" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="B33" s="7"/>
-      <c r="C33" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="B34" s="7"/>
-      <c r="C34" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="B35" s="7"/>
-      <c r="C35" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="B36" s="7"/>
-      <c r="C36" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="B37" s="7"/>
-      <c r="C37" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="B38" s="7"/>
-      <c r="C38" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="B39" s="7"/>
-      <c r="C39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="3" customFormat="1" ht="55.15" customHeight="1">
-      <c r="A40" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="B42" s="1" t="s">
+    <row r="45" spans="1:3">
+      <c r="B45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="B43" s="7" t="s">
+    <row r="46" spans="1:3">
+      <c r="B46" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="B44" s="7"/>
-      <c r="C44" t="s">
+    <row r="47" spans="1:3">
+      <c r="B47" s="10"/>
+      <c r="C47" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="B45" s="7"/>
-      <c r="C45" s="1" t="s">
+    <row r="48" spans="1:3">
+      <c r="B48" s="10"/>
+      <c r="C48" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="B46" s="7"/>
-      <c r="C46" s="1" t="s">
+    <row r="49" spans="1:3">
+      <c r="B49" s="10"/>
+      <c r="C49" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="B47" t="s">
+    <row r="50" spans="1:3">
+      <c r="B50" t="s">
         <v>28</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C50" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="3" customFormat="1" ht="55.15" customHeight="1">
-      <c r="A48" s="3" t="s">
+    <row r="51" spans="1:3" s="3" customFormat="1" ht="55.15" customHeight="1">
+      <c r="A51" s="3" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B28:B39"/>
-    <mergeCell ref="B43:B46"/>
+  <mergeCells count="11">
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B31:B42"/>
+    <mergeCell ref="B46:B49"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/Plan/迭代计划.xlsx
+++ b/Plan/迭代计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="100">
   <si>
     <t>宣传网站</t>
   </si>
@@ -40,9 +40,6 @@
     <t>实现多个小图片合成一张大图</t>
   </si>
   <si>
-    <t>指定一张封面照片，按照封面照片的大小计算合成算法</t>
-  </si>
-  <si>
     <t>封面照片和合成照片的合并</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>照片上传</t>
   </si>
   <si>
-    <t>照片库建立，分类：人像、动物像</t>
-  </si>
-  <si>
     <t>照片库图片录入</t>
   </si>
   <si>
@@ -70,16 +64,10 @@
     <t>调用人脸识别程序接口，返回图片</t>
   </si>
   <si>
-    <t>（普通组合）用户可自己上传图片，设置生成照片的大小，网站计算每张照片的大小，根据上传的图片组合为大图</t>
-  </si>
-  <si>
     <t>（蒙太奇）用户上传封面照片，系统自动从图片库获得头像生成合成后的照片</t>
   </si>
   <si>
     <t>（蒙太奇）用户可自己上传头像，头像数量不足时从图片库取或者重复使用上传打头像，用户自己选择</t>
-  </si>
-  <si>
-    <t>用户数据存储，只需要密码即可。</t>
   </si>
   <si>
     <t>里程碑二（2014年12月26日）
@@ -312,23 +300,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>javascript截图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年12月8日至2014年12月15日(11小时)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C sharp算法深入研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>人脸识别程序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>应用网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（普通组合）用户可自己上传图片，设置生成照片的大小，网站计算每张照片的大小，根据上传的图片组合为大图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户数据存储，只需要密码即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定一张封面照片，按照封面照片的大小计算合成算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>javascript插件准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>技术调研</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>javascript截图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014年12月8日至2014年12月15日(11小时)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C sharp算法深入研究</t>
+    <t>技术调研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片抓取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡萌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mock-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片库建立，分类：人像、动物像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李璐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传统算法研究--图片质量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片效率，或者文件流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取网络图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年12月15日至2014年12月22日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -432,6 +500,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -452,20 +526,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,10 +836,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -785,9 +850,9 @@
     <col min="4" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="27">
-      <c r="A1" s="11" t="s">
-        <v>31</v>
+    <row r="1" spans="1:4" s="14" customFormat="1" ht="27">
+      <c r="A1" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" ht="19.5" customHeight="1">
@@ -795,402 +860,483 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="3" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="B3" s="13"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="B4" s="15"/>
+      <c r="C4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="B5" s="15"/>
+      <c r="C5" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="6" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B6" s="15"/>
+      <c r="C6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="13"/>
-      <c r="C4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="B5" s="13"/>
-      <c r="C5" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B6" s="13"/>
-      <c r="C6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:4" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="6" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="17"/>
+      <c r="B8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="14" t="s">
+      <c r="D8" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="6" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="6" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A12" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A14" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A15" s="17"/>
+      <c r="B15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A12" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="C15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A14" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" ht="55.15" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="4" customFormat="1">
+      <c r="A17" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="4" customFormat="1">
+      <c r="A18" s="17"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="4" customFormat="1">
+      <c r="A19" s="17"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="18"/>
+      <c r="B21" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="18"/>
+      <c r="B22" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="18"/>
+      <c r="B23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="18"/>
+      <c r="B24" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="18"/>
+      <c r="B25" s="11"/>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="10"/>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" s="10"/>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="36">
+      <c r="B30" s="10"/>
+      <c r="C30" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" s="10"/>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="12"/>
+      <c r="C33" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="12"/>
+      <c r="C34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="21" t="s">
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="12"/>
+      <c r="C35" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="12"/>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="12"/>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="12"/>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="12"/>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="12"/>
+      <c r="C41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="12"/>
+      <c r="C42" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="12"/>
+      <c r="C43" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="12"/>
+      <c r="C44" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="12"/>
+      <c r="C45" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="16"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="16"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="17" t="s">
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="12"/>
+      <c r="C46" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="12"/>
+      <c r="C47" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="12"/>
+      <c r="C48" t="s">
         <v>81</v>
       </c>
-      <c r="D19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="B20" s="20"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="B21" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="B22" s="20"/>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="B23" s="20"/>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="36">
-      <c r="B24" s="20"/>
-      <c r="C24" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="B25" s="20"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="B26" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="B27" s="10"/>
-      <c r="C27" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" s="10"/>
-      <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="B29" s="10"/>
-      <c r="C29" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30" s="10"/>
-      <c r="C30" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="B32" s="10"/>
-      <c r="C32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="B33" s="10"/>
-      <c r="C33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="B34" s="10"/>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="B35" s="10"/>
-      <c r="C35" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="B36" s="10"/>
-      <c r="C36" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="B37" s="10"/>
-      <c r="C37" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="B38" s="10"/>
-      <c r="C38" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="B39" s="10"/>
-      <c r="C39" s="1" t="s">
+    </row>
+    <row r="49" spans="1:3" s="3" customFormat="1" ht="55.15" customHeight="1">
+      <c r="A49" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="B40" s="10"/>
-      <c r="C40" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="B41" s="10"/>
-      <c r="C41" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="B42" s="10"/>
-      <c r="C42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="3" customFormat="1" ht="55.15" customHeight="1">
-      <c r="A43" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="B45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="B46" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="B47" s="10"/>
-      <c r="C47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="B48" s="10"/>
-      <c r="C48" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="B49" s="10"/>
-      <c r="C49" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="B50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="3" customFormat="1" ht="55.15" customHeight="1">
-      <c r="A51" s="3" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="B52" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="B53" s="12"/>
+      <c r="C53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="B54" s="12"/>
+      <c r="C54" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" s="12"/>
+      <c r="C55" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="3" customFormat="1" ht="55.15" customHeight="1">
+      <c r="A57" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B31:B42"/>
-    <mergeCell ref="B46:B49"/>
+  <mergeCells count="12">
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B37:B48"/>
+    <mergeCell ref="B52:B55"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B8:B9"/>
@@ -1199,6 +1345,7 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
